--- a/biology/Botanique/Prunus_subg._Prunus/Prunus_subg._Prunus.xlsx
+++ b/biology/Botanique/Prunus_subg._Prunus/Prunus_subg._Prunus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prunus subg. Prunus est un sous-genre de plantes à fleurs de la famille des Rosaceae et du genre Prunus. Ce sous-genre inclut des espèces cultivées comme les pruniers, les pêchers et les abricotiers[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prunus subg. Prunus est un sous-genre de plantes à fleurs de la famille des Rosaceae et du genre Prunus. Ce sous-genre inclut des espèces cultivées comme les pruniers, les pêchers et les abricotiers,.
 </t>
         </is>
       </c>
@@ -511,58 +523,265 @@
           <t>Sections selon  Shi et al. (2013)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Shi et al. (2013) divisent le sous-genre Prunus en sept sections : sect. Amygdalus, sect. Armeniaca, sect. Emplectocladus, sect. Microcerasus, sect. Persicae, sect. Prunocerasus et sect. Prunus[1].
-Sect. Emplectocladus
-Prunus sect. Emplectocladus (Torr.) A.Gray est le groupe frère de toutes les autres espèces du sous-genre[1], et parfois traités comme un sous-genre distinct, Prunus subg. Emplectocladus (Torr.) S.C.Mason. Il inclut six espèces américaines[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shi et al. (2013) divisent le sous-genre Prunus en sept sections : sect. Amygdalus, sect. Armeniaca, sect. Emplectocladus, sect. Microcerasus, sect. Persicae, sect. Prunocerasus et sect. Prunus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sections selon  Shi et al. (2013)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sect. Emplectocladus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prunus sect. Emplectocladus (Torr.) A.Gray est le groupe frère de toutes les autres espèces du sous-genre, et parfois traités comme un sous-genre distinct, Prunus subg. Emplectocladus (Torr.) S.C.Mason. Il inclut six espèces américaines,.
 Prunus fasciculata
 Prunus cercocarpifolia
 Prunus eremophila
 Prunus havardii
 Prunus microphylla
-Prunus minutiflora
-Sect. Amygdalus et sect. Persica
-Prunus sect. Amygdalus (L.) Benth. &amp; Hook.f. et Prunus sect. Persica (Mill.) Nakai constituent parfois Prunus subg. Amygdalus(L.) Focke. Ensemble, ils forment un clade et P. kansuensis, sont regroupées soit dans la section Amygdalus ou dans la section Persica selon différentes études[2],[5].
-La section Amygdalus inclut la plupart des espèces d'amandiers de l'Ancien Monde à l'exception de P. mongolica, P. tangutica, P. triloba, P. pedunculata, P. tenella, P. petunnikowii et probablement d'autres espèces apparentées[2].
+Prunus minutiflora</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sections selon  Shi et al. (2013)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sect. Amygdalus et sect. Persica</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prunus sect. Amygdalus (L.) Benth. &amp; Hook.f. et Prunus sect. Persica (Mill.) Nakai constituent parfois Prunus subg. Amygdalus(L.) Focke. Ensemble, ils forment un clade et P. kansuensis, sont regroupées soit dans la section Amygdalus ou dans la section Persica selon différentes études,.
+La section Amygdalus inclut la plupart des espèces d'amandiers de l'Ancien Monde à l'exception de P. mongolica, P. tangutica, P. triloba, P. pedunculata, P. tenella, P. petunnikowii et probablement d'autres espèces apparentées.
 Quelques espèces:
 Prunus arabica
 Prunus dulcis - L'Amandier
 Prunus fenzliana
 Prunus spinosissima
-La section Persica inclut les espèces de pêchers[6] ainsi que deux espèces que l'on considéraient auparavant être des amandiers (P. mongolica et P. tangutica)[2].
+La section Persica inclut les espèces de pêchers ainsi que deux espèces que l'on considéraient auparavant être des amandiers (P. mongolica et P. tangutica).
 Prunus davidiana
 Prunus ferganensis
 Prunus kansuensis
 Prunus mira
 Prunus mongolica
 Prunus persica – le Pêcher
-Prunus tangutica
-Sect. Armeniaca
-Les espèces de la section Prunus sect. Armeniaca (Scop.) Koch sont des abricotiers, originaires d'Eurasie[1].
+Prunus tangutica</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sections selon  Shi et al. (2013)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sect. Armeniaca</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les espèces de la section Prunus sect. Armeniaca (Scop.) Koch sont des abricotiers, originaires d'Eurasie.
 Quelques espèces :
 Prunus armeniaca – l'Abricotier
 Prunus mandshurica
 Prunus mume
-Prunus sibirica
-Sect. Microcerasus
-Quelques espèces :
+Prunus sibirica</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sections selon  Shi et al. (2013)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sect. Microcerasus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Quelques espèces :
 Prunus glandulosa
 Prunus japonica
 Prunus prostrata
 Prunus pumila
 Prunus tianshanica
-Prunus tomentosa
-Sect. Prunocerasus
-Quelques espèces :
+Prunus tomentosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sections selon  Shi et al. (2013)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sect. Prunocerasus</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Quelques espèces :
 Prunus americana
 Prunus angustifolia
 Prunus maritima
 Prunus mexicana
 Prunus nigra
-Prunus texana
-Sect. Prunus
-La section Prunus sect. Prunus inclut les pruniers de l'Ancien Monde[1].
+Prunus texana</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sections selon  Shi et al. (2013)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sect. Prunus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La section Prunus sect. Prunus inclut les pruniers de l'Ancien Monde.
 Quelques espèces :
 Prunus cerasifera
 Prunus domestica
@@ -572,44 +791,149 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Prunus_subg._Prunus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sections additionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les espèces des sections qui suivent ne sont pas présentes dans les résultats de Shi et al. (2013). De ce fait, leur relation avec les sections proposées par Shi et al. (2013) n'est pas claire.
-Sect. Chamaeamygdalus
-La section Prunus sect. Chamaeamygdalus (Spach) Dippel était incluse dans le clade Amygdalus-Persica mais les études phylogénétiques indiquent qu'elle doit en être exclue[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces des sections qui suivent ne sont pas présentes dans les résultats de Shi et al. (2013). De ce fait, leur relation avec les sections proposées par Shi et al. (2013) n'est pas claire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sections additionnelles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sect. Chamaeamygdalus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>La section Prunus sect. Chamaeamygdalus (Spach) Dippel était incluse dans le clade Amygdalus-Persica mais les études phylogénétiques indiquent qu'elle doit en être exclue.
 Prunus tenella
-Prunus petunnikowii
-Sect. Louiseania
-La section Prunus sect. Louiseania (Carrière) Yazbek inclut deux ou trois espèces asiatiques[7].
+Prunus petunnikowii</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Sections additionnelles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sect. Louiseania</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>La section Prunus sect. Louiseania (Carrière) Yazbek inclut deux ou trois espèces asiatiques.
 Prunus pedunculata
 Prunus triloba
-Prunus ulmifolia
-Sect. Penarmeniaca
-Prunus sect. Penarmeniaca S.C.Mason est le groupe frère des pruniers du Nouveau Monde, P. texana et, probablement, de l'espèce de l'Ancien Monde P. tenella[2].
+Prunus ulmifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prunus_subg._Prunus</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Sections additionnelles</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sect. Penarmeniaca</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prunus sect. Penarmeniaca S.C.Mason est le groupe frère des pruniers du Nouveau Monde, P. texana et, probablement, de l'espèce de l'Ancien Monde P. tenella.
 Prunus andersonii
 Prunus fremontii</t>
         </is>
